--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821756.9641309191</v>
+        <v>829086.216063488</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138947</v>
+        <v>5312247.587582168</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.392264782</v>
+        <v>3783355.816622884</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7874017.57910677</v>
+        <v>8331176.335449858</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>100.0791888769556</v>
       </c>
       <c r="V2" t="n">
-        <v>125.9334753194671</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -725,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>215.6209593245951</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>79.2363478168981</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>208.3015676215477</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1060,19 +1062,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>266.2723283900672</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1145,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1196,10 +1198,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>378.5886586997264</v>
+        <v>92.98108290244485</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>29.06736062834948</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1382,7 +1384,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>274.2883585578512</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>120.3294211474747</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>84.76227032663334</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>99.8328283957879</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>99.54248592713392</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.451327196733832</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.1840488035389</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="W20" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>53.9297809812067</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2299,10 +2301,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>71.02273025732299</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.95590699086193</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>39.64108301376432</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.6942298771793</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2810,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>161.5901221570384</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>53.20093248929918</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.7165542762732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>144.2018606410493</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3271,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6236394854355</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.13187460755614</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>50.39236405269832</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>220.9788329823766</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>166.6895325984412</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3910,7 +3912,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>101.8855050095073</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3979,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>372.4640488293374</v>
       </c>
       <c r="E44" t="n">
-        <v>231.8228605356596</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4135,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>98.9457413571089</v>
+        <v>55.6955128369194</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1709.183111962495</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C2" t="n">
-        <v>1709.183111962495</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.719182055555</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>890.3789665724521</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>469.3485545261396</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>314.8057418867261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>852.9652429957656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1565.556642808004</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.556642808004</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1565.556642808004</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.695816234144</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2709.852514153296</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>3031.013520948588</v>
+        <v>1987.1641917054</v>
       </c>
       <c r="V2" t="n">
-        <v>2903.807990322864</v>
+        <v>1637.32663704188</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.047689458032</v>
+        <v>1253.566336177049</v>
       </c>
       <c r="X2" t="n">
-        <v>2119.404291626985</v>
+        <v>852.9229383460014</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.404291626985</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J3" t="n">
-        <v>253.433127981605</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>709.2393842469037</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>709.2393842469037</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>1459.415230681679</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N3" t="n">
-        <v>1757.265001585488</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O3" t="n">
-        <v>1757.265001585488</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
-        <v>1757.265001585488</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="Q3" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>60.62027041897176</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1590.019167039822</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1359.453388176003</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1076.655240722127</v>
+        <v>842.1518079697416</v>
       </c>
       <c r="V4" t="n">
-        <v>802.7694956616493</v>
+        <v>842.1518079697416</v>
       </c>
       <c r="W4" t="n">
-        <v>523.6998311705237</v>
+        <v>842.1518079697416</v>
       </c>
       <c r="X4" t="n">
-        <v>285.3559690302071</v>
+        <v>603.8079458294251</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.62027041897176</v>
+        <v>379.0722472181898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>875.2087910126411</v>
+        <v>849.1499363715408</v>
       </c>
       <c r="C5" t="n">
-        <v>465.0842003259112</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="D5" t="n">
-        <v>60.62027041897176</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E5" t="n">
-        <v>60.62027041897176</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F5" t="n">
-        <v>60.62027041897176</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>60.62027041897176</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>314.8057418867261</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>717.9285699871309</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>1430.519969799369</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1430.519969799369</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>2180.695816234144</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.695816234144</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2709.852514153296</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>3031.013520948588</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3031.013520948588</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>3031.013520948588</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2820.607897088439</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2470.770342424919</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>2087.010041560088</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.36664372904</v>
+        <v>1330.123324390014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.429970677131</v>
+        <v>929.1866513381045</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>516.4265266842705</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>516.4265266842705</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1266.602373119046</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1266.602373119046</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O6" t="n">
-        <v>1757.265001585488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P6" t="n">
-        <v>1757.265001585488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2107.109466269472</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>391.2082875343452</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>220.1149150960617</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>60.62027041897176</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>1321.057219171067</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>1041.987554679941</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>803.6436925396249</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>578.9079939283896</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1300.454827855327</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1300.454827855327</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9908979483876</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6506824652842</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>60.62027041897176</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J8" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>60.62027041897176</v>
+        <v>801.9397584267324</v>
       </c>
       <c r="L8" t="n">
-        <v>773.2116702312098</v>
+        <v>1514.53115823897</v>
       </c>
       <c r="M8" t="n">
-        <v>1523.387516665985</v>
+        <v>2290.849749230724</v>
       </c>
       <c r="N8" t="n">
-        <v>2273.563363100761</v>
+        <v>3044.030765869342</v>
       </c>
       <c r="O8" t="n">
-        <v>2917.194219517866</v>
+        <v>3687.661622286447</v>
       </c>
       <c r="P8" t="n">
-        <v>2917.194219517866</v>
+        <v>4216.818320205599</v>
       </c>
       <c r="Q8" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000891</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690456</v>
       </c>
       <c r="S8" t="n">
-        <v>2895.732445742689</v>
+        <v>4443.254897484557</v>
       </c>
       <c r="T8" t="n">
-        <v>2673.525961689548</v>
+        <v>4443.254897484557</v>
       </c>
       <c r="U8" t="n">
-        <v>2416.465469949058</v>
+        <v>4186.194405744067</v>
       </c>
       <c r="V8" t="n">
-        <v>2066.627915285539</v>
+        <v>3836.356851080548</v>
       </c>
       <c r="W8" t="n">
-        <v>1682.867614420707</v>
+        <v>3452.596550215716</v>
       </c>
       <c r="X8" t="n">
-        <v>1300.454827855327</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>1300.454827855327</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J9" t="n">
-        <v>253.433127981605</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>709.2393842469037</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.307911039594</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.307911039594</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.307911039594</v>
+        <v>1613.847925393359</v>
       </c>
       <c r="O9" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="C10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="D10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="E10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="F10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="G10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="H10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590196</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1504.746448715222</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1318.354680595132</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T10" t="n">
-        <v>1078.805941571834</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U10" t="n">
-        <v>796.0077941179582</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="V10" t="n">
-        <v>522.1220490574801</v>
+        <v>638.3452164169175</v>
       </c>
       <c r="W10" t="n">
-        <v>243.0523845663545</v>
+        <v>359.2755519257919</v>
       </c>
       <c r="X10" t="n">
-        <v>60.62027041897176</v>
+        <v>120.9316897854753</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.62027041897176</v>
+        <v>120.9316897854753</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1714.843772742285</v>
+        <v>2018.588815615128</v>
       </c>
       <c r="C11" t="n">
-        <v>1304.719182055555</v>
+        <v>1608.464224928398</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.719182055555</v>
+        <v>1204.000295021458</v>
       </c>
       <c r="E11" t="n">
-        <v>890.3789665724521</v>
+        <v>789.6600795383551</v>
       </c>
       <c r="F11" t="n">
-        <v>469.3485545261396</v>
+        <v>368.6296674920427</v>
       </c>
       <c r="G11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="H11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J11" t="n">
-        <v>314.8057418867261</v>
+        <v>263.7802573176929</v>
       </c>
       <c r="K11" t="n">
-        <v>677.371924297566</v>
+        <v>801.9397584267324</v>
       </c>
       <c r="L11" t="n">
-        <v>1389.963324109804</v>
+        <v>1514.53115823897</v>
       </c>
       <c r="M11" t="n">
-        <v>1389.963324109804</v>
+        <v>2290.849749230724</v>
       </c>
       <c r="N11" t="n">
-        <v>2140.139170544579</v>
+        <v>3044.030765869342</v>
       </c>
       <c r="O11" t="n">
-        <v>2140.139170544579</v>
+        <v>3687.661622286447</v>
       </c>
       <c r="P11" t="n">
-        <v>2669.295868463731</v>
+        <v>4216.818320205599</v>
       </c>
       <c r="Q11" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000891</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690456</v>
       </c>
       <c r="S11" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484557</v>
       </c>
       <c r="T11" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431416</v>
       </c>
       <c r="U11" t="n">
-        <v>3031.013520948588</v>
+        <v>3963.987921690926</v>
       </c>
       <c r="V11" t="n">
-        <v>2909.468651102654</v>
+        <v>3614.150367027406</v>
       </c>
       <c r="W11" t="n">
-        <v>2525.708350237822</v>
+        <v>3230.390066162575</v>
       </c>
       <c r="X11" t="n">
-        <v>2125.064952406775</v>
+        <v>2829.746668331527</v>
       </c>
       <c r="Y11" t="n">
-        <v>2125.064952406775</v>
+        <v>2428.809995279617</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J12" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>60.62027041897176</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="M12" t="n">
-        <v>810.7961168537472</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.152375723578</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1149.954120720108</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="C13" t="n">
-        <v>978.860748281825</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="D13" t="n">
-        <v>819.3661036047349</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="E13" t="n">
-        <v>658.4552884730543</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="F13" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="G13" t="n">
-        <v>326.573771509189</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="H13" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590196</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>1590.019167039822</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>1590.019167039822</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W13" t="n">
-        <v>1590.019167039822</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X13" t="n">
-        <v>1562.389525725388</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="Y13" t="n">
-        <v>1337.653827114153</v>
+        <v>91.57071945380913</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.307702649225</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C14" t="n">
-        <v>1709.183111962495</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D14" t="n">
-        <v>1304.719182055555</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E14" t="n">
-        <v>890.3789665724521</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F14" t="n">
-        <v>469.3485545261396</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G14" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J14" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176929</v>
       </c>
       <c r="K14" t="n">
-        <v>133.8829261601292</v>
+        <v>801.9397584267324</v>
       </c>
       <c r="L14" t="n">
-        <v>846.4743259723672</v>
+        <v>1514.53115823897</v>
       </c>
       <c r="M14" t="n">
-        <v>1596.650172407143</v>
+        <v>2290.849749230724</v>
       </c>
       <c r="N14" t="n">
-        <v>2346.826018841918</v>
+        <v>3044.030765869342</v>
       </c>
       <c r="O14" t="n">
-        <v>2990.456875259023</v>
+        <v>3687.661622286447</v>
       </c>
       <c r="P14" t="n">
-        <v>2990.456875259023</v>
+        <v>4216.818320205599</v>
       </c>
       <c r="Q14" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000891</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690456</v>
       </c>
       <c r="S14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690456</v>
       </c>
       <c r="T14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690456</v>
       </c>
       <c r="U14" t="n">
-        <v>3031.013520948588</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V14" t="n">
-        <v>3031.013520948588</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W14" t="n">
-        <v>2930.172280144762</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X14" t="n">
-        <v>2529.528882313714</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y14" t="n">
-        <v>2529.528882313714</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="K15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="L15" t="n">
-        <v>60.62027041897176</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="M15" t="n">
-        <v>810.7961168537472</v>
+        <v>1595.635972067664</v>
       </c>
       <c r="N15" t="n">
-        <v>1560.971963288523</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="O15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1149.954120720108</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="C16" t="n">
-        <v>978.860748281825</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="D16" t="n">
-        <v>819.3661036047349</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="E16" t="n">
-        <v>658.4552884730543</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="F16" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="G16" t="n">
-        <v>326.573771509189</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="H16" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590196</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T16" t="n">
-        <v>1590.019167039822</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>1590.019167039822</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V16" t="n">
-        <v>1590.019167039822</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W16" t="n">
-        <v>1590.019167039822</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X16" t="n">
-        <v>1562.389525725388</v>
+        <v>91.57071945380913</v>
       </c>
       <c r="Y16" t="n">
-        <v>1337.653827114153</v>
+        <v>91.57071945380913</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.307702649225</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.183111962495</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1304.719182055555</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>890.3789665724521</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>469.3485545261396</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G17" t="n">
-        <v>60.62027041897176</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>60.62027041897176</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>60.62027041897176</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
-        <v>773.2116702312098</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1523.387516665985</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>2273.563363100761</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2917.194219517866</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>3031.013520948588</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>3031.013520948588</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>3031.013520948588</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>3031.013520948588</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>3031.013520948588</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3031.013520948588</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3031.013520948588</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2930.465555365624</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2529.528882313714</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>516.4265266842705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1177.514698603559</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1927.690545038334</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N18" t="n">
-        <v>1927.690545038334</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.2931853156977</v>
+        <v>272.8737642670213</v>
       </c>
       <c r="C19" t="n">
-        <v>310.1998128774142</v>
+        <v>101.7803918287378</v>
       </c>
       <c r="D19" t="n">
-        <v>150.7051682003242</v>
+        <v>101.7803918287378</v>
       </c>
       <c r="E19" t="n">
-        <v>150.7051682003242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>150.7051682003242</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1504.746448715222</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1504.746448715222</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T19" t="n">
-        <v>1504.746448715222</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U19" t="n">
-        <v>1221.948301261346</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V19" t="n">
-        <v>948.0625562008677</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="W19" t="n">
-        <v>668.992891709742</v>
+        <v>735.9533250185732</v>
       </c>
       <c r="X19" t="n">
-        <v>668.992891709742</v>
+        <v>497.6094628782566</v>
       </c>
       <c r="Y19" t="n">
-        <v>668.992891709742</v>
+        <v>272.8737642670213</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5777,16 +5779,16 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
         <v>3760.992640523532</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C21" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D21" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E21" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H21" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>3458.672769375206</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>4332.330861486824</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R21" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S21" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T21" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U21" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V21" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W21" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X21" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I22" t="n">
         <v>3132.785987910289</v>
@@ -5932,28 +5934,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>4379.386737077264</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="W22" t="n">
-        <v>3315.218102057671</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>4105.500992016786</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>4105.500992016786</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5974,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -5987,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6075,16 +6077,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.8401346607533</v>
+        <v>3963.271952669106</v>
       </c>
       <c r="C25" t="n">
-        <v>376.8401346607533</v>
+        <v>3963.271952669106</v>
       </c>
       <c r="D25" t="n">
-        <v>376.8401346607533</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>376.8401346607533</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>376.8401346607533</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>209.5897435862967</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1339.844446857597</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.958701797119</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="W25" t="n">
-        <v>1027.61940180635</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="X25" t="n">
-        <v>789.275539666033</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.5398410547976</v>
+        <v>4150.971659063151</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E26" t="n">
-        <v>911.5343697921442</v>
+        <v>1273.952389210086</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>852.921977163774</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>444.1936930566062</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>133.2851956843242</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6266,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1129.033635947823</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6412,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1339.844446857597</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1339.844446857597</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.844446857597</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1339.844446857597</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3952.138291659922</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3781.044919221639</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3621.550274544549</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3460.639459412868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3296.008333523459</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>4139.837998053967</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.837998053967</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>4139.837998053967</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>4139.837998053967</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>4139.837998053967</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629049</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6725,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>409.9955152208753</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>238.9021427825918</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.978107866783</v>
+        <v>1060.774782366472</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.978107866783</v>
+        <v>822.430920226155</v>
       </c>
       <c r="Y34" t="n">
-        <v>1350.978107866783</v>
+        <v>597.6952216149197</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N36" t="n">
-        <v>1597.308950304478</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1182.57754799176</v>
+        <v>692.7936626747511</v>
       </c>
       <c r="C37" t="n">
-        <v>1011.484175553476</v>
+        <v>521.7002902364676</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>362.2056455593776</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>201.2948304276971</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7132,13 +7134,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X37" t="n">
-        <v>1595.012952997039</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y37" t="n">
-        <v>1370.277254385804</v>
+        <v>880.4933690687955</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7256,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N39" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
         <v>1578.027001052593</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>410.0985766118484</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="C40" t="n">
-        <v>410.0985766118484</v>
+        <v>932.9308183587659</v>
       </c>
       <c r="D40" t="n">
-        <v>410.0985766118484</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>410.0985766118484</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0985766118484</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
         <v>359.19719878084</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>913.9039397142094</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>634.8342752230838</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X40" t="n">
-        <v>634.8342752230838</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y40" t="n">
-        <v>410.0985766118484</v>
+        <v>1104.024190797049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2052.438364949176</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>1642.313774262446</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1237.849844355507</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>823.5096288724035</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>263.7802573176929</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>801.9397584267324</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1514.53115823897</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2290.849749230724</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3044.030765869342</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3687.661622286447</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4216.818320205599</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4537.97932700089</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4443.254897484556</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4221.048413431415</v>
       </c>
       <c r="U41" t="n">
-        <v>4304.697325272099</v>
+        <v>3997.837471024974</v>
       </c>
       <c r="V41" t="n">
-        <v>3954.85977060858</v>
+        <v>3647.999916361454</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3264.239615496623</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>2863.596217665575</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2462.659544613665</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892892</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086816</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010096</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.3193108335689</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>2051.442228332963</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>913.9039397142094</v>
+        <v>3648.687041053733</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>3477.59366861545</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>3477.59366861545</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>3316.682853483769</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>3152.05172759436</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>3049.137076069605</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>3049.137076069605</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3049.137076069605</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3063.219625474816</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3217.771953197054</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3477.669053477114</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3766.933109917607</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4047.771892311858</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4307.332502638332</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4513.007942887944</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="T43" t="n">
-        <v>1196.702087168085</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="U43" t="n">
-        <v>913.9039397142094</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="V43" t="n">
-        <v>913.9039397142094</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="W43" t="n">
-        <v>913.9039397142094</v>
+        <v>4299.466308199329</v>
       </c>
       <c r="X43" t="n">
-        <v>913.9039397142094</v>
+        <v>4061.122446059013</v>
       </c>
       <c r="Y43" t="n">
-        <v>913.9039397142094</v>
+        <v>3836.386747447777</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1435.451969536309</v>
+        <v>2018.588815615127</v>
       </c>
       <c r="C44" t="n">
-        <v>1435.451969536309</v>
+        <v>1608.464224928397</v>
       </c>
       <c r="D44" t="n">
-        <v>1435.451969536309</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="E44" t="n">
-        <v>1201.287463944734</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F44" t="n">
-        <v>780.2570518984217</v>
+        <v>811.2075009332589</v>
       </c>
       <c r="G44" t="n">
-        <v>371.5287677912538</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="J44" t="n">
-        <v>314.8057418867261</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>852.9652429957656</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>852.9652429957656</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>1389.963324109804</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>2140.139170544579</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>2140.139170544579</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>2669.295868463731</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.97932700089</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690455</v>
       </c>
       <c r="S44" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484556</v>
       </c>
       <c r="T44" t="n">
-        <v>3031.013520948588</v>
+        <v>4221.048413431415</v>
       </c>
       <c r="U44" t="n">
-        <v>3031.013520948588</v>
+        <v>3963.987921690925</v>
       </c>
       <c r="V44" t="n">
-        <v>3031.013520948588</v>
+        <v>3614.150367027406</v>
       </c>
       <c r="W44" t="n">
-        <v>2647.253220083756</v>
+        <v>3230.390066162574</v>
       </c>
       <c r="X44" t="n">
-        <v>2246.609822252709</v>
+        <v>2829.746668331527</v>
       </c>
       <c r="Y44" t="n">
-        <v>1845.673149200799</v>
+        <v>2428.809995279616</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892892</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086816</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010096</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.3193108335689</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>60.62027041897176</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M45" t="n">
-        <v>652.976529288802</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N45" t="n">
-        <v>1403.152375723578</v>
+        <v>1613.847925393359</v>
       </c>
       <c r="O45" t="n">
-        <v>2107.109466269472</v>
+        <v>1613.847925393359</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.109466269472</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1078.805941571834</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="C46" t="n">
-        <v>978.860748281825</v>
+        <v>251.0653641308991</v>
       </c>
       <c r="D46" t="n">
-        <v>819.3661036047349</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="E46" t="n">
-        <v>658.4552884730543</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="F46" t="n">
-        <v>493.8241625836456</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="G46" t="n">
-        <v>326.573771509189</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="H46" t="n">
-        <v>176.9663163146456</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="I46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.5707194538091</v>
       </c>
       <c r="J46" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590196</v>
       </c>
       <c r="K46" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1504.746448715222</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1318.354680595132</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.805941571834</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>1078.805941571834</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V46" t="n">
-        <v>1078.805941571834</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.805941571834</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X46" t="n">
-        <v>1078.805941571834</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
-        <v>1078.805941571834</v>
+        <v>307.3234579055651</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>714.5424760562281</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>815.3176639755644</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>354.0517478420422</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>362.9022490996783</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8216,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>496.3311655322119</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>850.6656709937663</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>815.3176639755644</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>553.3702956327701</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>549.9278720016706</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>164.0364869659775</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8535,22 +8537,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>403.658490268112</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>587.2585395161111</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786451</v>
       </c>
       <c r="K11" t="n">
-        <v>455.3648567548736</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
         <v>628.1510783507341</v>
@@ -8766,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>815.3176639755644</v>
+        <v>90.72066712971576</v>
       </c>
       <c r="N12" t="n">
-        <v>651.5330488178209</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786451</v>
       </c>
       <c r="K14" t="n">
-        <v>163.1390722400428</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>810.9467736308969</v>
+        <v>601.0963663600579</v>
       </c>
       <c r="O15" t="n">
-        <v>609.4055224151002</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>208.6183546250479</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,19 +9245,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>815.3176639755644</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>238.9827125668056</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>390.9373608629454</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,19 +9725,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>352.6623456499191</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>363.0339661689075</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,16 +10427,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10443,13 +10445,13 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>602.1626079691122</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6544519663084</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N38" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
         <v>743.321953824879</v>
@@ -10902,19 +10904,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>706.040592805458</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786451</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11139,19 +11141,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11300,22 +11302,22 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>635.7125286126399</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>331.6348884308904</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>655.9039391624884</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>200.5303479970831</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22550,16 +22552,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22601,10 +22603,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>154.4106979461294</v>
       </c>
       <c r="V2" t="n">
-        <v>220.405703797417</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22720,7 +22722,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>64.34920665474201</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>326.8826200509465</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22799,10 +22801,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>46.18831920153724</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22999,13 +23001,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>4.874559219806031</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23072,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>18.04830515301063</v>
+        <v>303.6558809502922</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>156.7553487017545</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>130.3526427082449</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>226.0097579694094</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>169.7276164964516</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>280.0898694603952</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>25.66401796922122</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>297.0944779256031</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>150.8503797836299</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>76.39383836017311</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23941,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>187.9942390719855</v>
       </c>
       <c r="W20" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>115.452657732694</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24212,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>86.87696797299608</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>238.3230608553524</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>45.84716204233325</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.12847945292467</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>3.987765006673612</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.10615505383078</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>21.37602652266273</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>56.01419322081109</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,19 +25551,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>77.76782362276293</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>115.1855231110137</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>33.51105384070834</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.692906115459493</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.69238215420472</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>27.95524177853264</v>
       </c>
       <c r="E44" t="n">
-        <v>178.3739527926127</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>70.43669735679175</v>
+        <v>113.6869258769813</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601017.8444297494</v>
+        <v>504474.2111983661</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601017.8444297492</v>
+        <v>504474.211198366</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>601017.8444297492</v>
+        <v>759492.4938880031</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>601017.8444297492</v>
+        <v>759492.4938880031</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>601017.8444297492</v>
+        <v>759492.4938880032</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>601017.8444297493</v>
+        <v>768058.5938283278</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768058.593828328</v>
+        <v>768058.5938283276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768058.5938283277</v>
+        <v>768058.5938283278</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768058.5938283276</v>
+        <v>768058.5938283278</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768058.5938283276</v>
+        <v>768058.5938283277</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768058.5938283275</v>
+        <v>759492.4938880031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>601017.8444297491</v>
+        <v>759492.4938880031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>215329.5476611431</v>
+        <v>180746.0634767999</v>
       </c>
       <c r="C2" t="n">
-        <v>215329.5476611431</v>
+        <v>180746.0634768</v>
       </c>
       <c r="D2" t="n">
-        <v>215329.5476611432</v>
+        <v>272097.7192092726</v>
       </c>
       <c r="E2" t="n">
-        <v>215329.5476611432</v>
+        <v>272097.7192092725</v>
       </c>
       <c r="F2" t="n">
-        <v>215329.5476611432</v>
+        <v>272097.7192092726</v>
       </c>
       <c r="G2" t="n">
-        <v>215329.5476611432</v>
+        <v>275166.234158339</v>
       </c>
       <c r="H2" t="n">
+        <v>275166.2341583392</v>
+      </c>
+      <c r="I2" t="n">
         <v>275166.2341583391</v>
-      </c>
-      <c r="I2" t="n">
-        <v>275166.2341583392</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
@@ -26341,19 +26343,19 @@
         <v>275166.2341583392</v>
       </c>
       <c r="L2" t="n">
-        <v>275166.2341583393</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="N2" t="n">
-        <v>275166.2341583393</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
-        <v>275166.2341583392</v>
+        <v>272097.7192092725</v>
       </c>
       <c r="P2" t="n">
-        <v>215329.5476611432</v>
+        <v>272097.7192092725</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351681</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.728000463494</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.9708775299</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23573.33933174805</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="C4" t="n">
-        <v>23573.33933174805</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="D4" t="n">
-        <v>23573.33933174805</v>
+        <v>29853.17293568462</v>
       </c>
       <c r="E4" t="n">
-        <v>23573.33933174805</v>
+        <v>29853.17293568462</v>
       </c>
       <c r="F4" t="n">
-        <v>23573.33933174805</v>
+        <v>29853.17293568462</v>
       </c>
       <c r="G4" t="n">
-        <v>23573.33933174805</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26442,22 +26444,22 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="L4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>30192.61954398331</v>
+        <v>29853.17293568462</v>
       </c>
       <c r="P4" t="n">
-        <v>23573.33933174805</v>
+        <v>29853.17293568462</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489493</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489493</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489492</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489492</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141883.3832342369</v>
+        <v>-79326.14145105318</v>
       </c>
       <c r="C6" t="n">
-        <v>112057.2028109765</v>
+        <v>95629.36844206101</v>
       </c>
       <c r="D6" t="n">
-        <v>112057.2028109766</v>
+        <v>-54365.85094647499</v>
       </c>
       <c r="E6" t="n">
-        <v>145684.8028109766</v>
+        <v>172650.7994886929</v>
       </c>
       <c r="F6" t="n">
-        <v>145684.8028109766</v>
+        <v>172650.799488693</v>
       </c>
       <c r="G6" t="n">
-        <v>145684.8028109766</v>
+        <v>168376.6763690189</v>
       </c>
       <c r="H6" t="n">
-        <v>64082.22576027129</v>
+        <v>174108.4043694825</v>
       </c>
       <c r="I6" t="n">
+        <v>174108.4043694825</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37513.60356358765</v>
+      </c>
+      <c r="K6" t="n">
+        <v>174108.4043694825</v>
+      </c>
+      <c r="L6" t="n">
+        <v>16541.43349195266</v>
+      </c>
+      <c r="M6" t="n">
         <v>174108.4043694826</v>
       </c>
-      <c r="J6" t="n">
-        <v>-24153.22104928545</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>174108.4043694826</v>
       </c>
-      <c r="L6" t="n">
-        <v>174108.4043694827</v>
-      </c>
-      <c r="M6" t="n">
-        <v>174108.4043694825</v>
-      </c>
-      <c r="N6" t="n">
-        <v>174108.4043694827</v>
-      </c>
       <c r="O6" t="n">
-        <v>174108.4043694826</v>
+        <v>172650.799488693</v>
       </c>
       <c r="P6" t="n">
-        <v>145684.8028109766</v>
+        <v>172650.799488693</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025885</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017109</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025885</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025885</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017109</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>621.352700430445</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>300.8583544482922</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>407.1947758589948</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>757.753380237147</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>757.753380237147</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>495.6188166327701</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>460.7914823284535</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>74.00268256682548</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35255,22 +35257,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>347.543966457263</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>529.5070605161111</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453371</v>
       </c>
       <c r="K11" t="n">
-        <v>366.2284670816565</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
         <v>534.50171506985</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>757.753380237147</v>
+        <v>33.15638339129833</v>
       </c>
       <c r="N12" t="n">
-        <v>598.339655424071</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>173.9490281453371</v>
       </c>
       <c r="K14" t="n">
-        <v>74.00268256682565</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>757.753380237147</v>
+        <v>547.902972966308</v>
       </c>
       <c r="O15" t="n">
-        <v>551.6540434151002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>114.9689913441638</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>757.753380237147</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>181.2312335668056</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>333.1858818629454</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>309.8405727751575</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>547.9029729663084</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>547.9029729663084</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>648.289113805458</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453372</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>542.4223041555944</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>241.6010840317384</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>598.339655424071</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>146.2707129942794</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>829086.216063488</v>
+        <v>826303.2269229119</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582168</v>
+        <v>5312247.587582164</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3783355.816622884</v>
+        <v>3783355.816622883</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8331176.335449858</v>
+        <v>8331176.335449859</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>155.9251219450843</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>100.0791888769556</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -727,7 +727,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>215.6209593245951</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.2363478168981</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>285.2408885615485</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>220.9788329823779</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>92.98108290244485</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.06736062834948</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1350,7 +1350,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2883585578512</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>124.1372441148409</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.48477761921227</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>84.76227032663334</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>378.9769832968749</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8.451327196733832</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>53.9297809812067</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>269.9562877695847</v>
+        <v>181.5733848809636</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>71.02273025732299</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>39.64108301376432</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2620,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>208.642724780751</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4066896505621</v>
+        <v>208.933067249405</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>53.20093248929918</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>144.2018606410493</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>218.1247287958589</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.13187460755614</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9788329823766</v>
+        <v>170.250515382732</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>101.8855050095073</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>372.4640488293374</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>170.250515382732</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>55.6955128369194</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.76508562960205</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,49 +4333,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1987.1641917054</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1637.32663704188</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W2" t="n">
-        <v>1253.566336177049</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X2" t="n">
-        <v>852.9229383460014</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y2" t="n">
-        <v>451.9862652940915</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585605</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>751.4208778585605</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>751.4208778585605</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1785.106747191211</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>842.1518079697416</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>842.1518079697416</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>842.1518079697416</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>603.8079458294251</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>379.0722472181898</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>849.1499363715408</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="C5" t="n">
-        <v>439.0253456848109</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="D5" t="n">
-        <v>439.0253456848109</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="E5" t="n">
-        <v>439.0253456848109</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="F5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4600,19 +4600,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1730.766722221062</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1730.766722221062</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1330.123324390014</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>929.1866513381045</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1541.851827451147</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2547.518411739271</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C8" t="n">
-        <v>2137.393821052541</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D8" t="n">
-        <v>1732.929891145602</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.589675662498</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F8" t="n">
-        <v>897.5592636161858</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G8" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H8" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
         <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>801.9397584267324</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L8" t="n">
-        <v>1514.53115823897</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M8" t="n">
-        <v>2290.849749230724</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N8" t="n">
-        <v>3044.030765869342</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O8" t="n">
-        <v>3687.661622286447</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P8" t="n">
-        <v>4216.818320205599</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q8" t="n">
-        <v>4537.979327000891</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
-        <v>4578.535972690456</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>4443.254897484557</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4443.254897484557</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>4186.194405744067</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V8" t="n">
-        <v>3836.356851080548</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W8" t="n">
-        <v>3452.596550215716</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X8" t="n">
-        <v>3358.676264455671</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y8" t="n">
-        <v>2957.739591403761</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
         <v>284.3835770164424</v>
@@ -4889,22 +4889,22 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>740.1898332817411</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M9" t="n">
-        <v>740.1898332817411</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N9" t="n">
-        <v>1613.847925393359</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O9" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>105.6532688590196</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
         <v>260.2055965812576</v>
@@ -4989,25 +4989,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1434.577847954569</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>1195.029108931271</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U10" t="n">
-        <v>912.2309614773956</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V10" t="n">
-        <v>638.3452164169175</v>
+        <v>1021.419651090531</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2755519257919</v>
+        <v>742.3499865994054</v>
       </c>
       <c r="X10" t="n">
-        <v>120.9316897854753</v>
+        <v>504.0061244590888</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.9316897854753</v>
+        <v>279.2704258478535</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.588815615128</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C11" t="n">
-        <v>1608.464224928398</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D11" t="n">
-        <v>1204.000295021458</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E11" t="n">
-        <v>789.6600795383551</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F11" t="n">
-        <v>368.6296674920427</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G11" t="n">
-        <v>91.57071945380913</v>
+        <v>216.9618751253656</v>
       </c>
       <c r="H11" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7802573176929</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>801.9397584267324</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>1514.53115823897</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>2290.849749230724</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.030765869342</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>3687.661622286447</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>4216.818320205599</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>4537.979327000891</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>4578.535972690456</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4443.254897484557</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>4221.048413431416</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>3963.987921690926</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V11" t="n">
-        <v>3614.150367027406</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W11" t="n">
-        <v>3230.390066162575</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X11" t="n">
-        <v>2829.746668331527</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y11" t="n">
-        <v>2428.809995279617</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
         <v>284.3835770164424</v>
@@ -5126,19 +5126,19 @@
         <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>1401.278005201029</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M12" t="n">
-        <v>1434.102824758415</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N12" t="n">
-        <v>1434.102824758415</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O12" t="n">
-        <v>2138.059915304309</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P12" t="n">
-        <v>2138.059915304309</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q12" t="n">
         <v>2138.059915304309</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>105.6532688590196</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
         <v>260.2055965812576</v>
@@ -5223,28 +5223,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>553.0724980923173</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0028336011917</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>91.57071945380913</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2547.518411739271</v>
+        <v>2133.178196256168</v>
       </c>
       <c r="C14" t="n">
-        <v>2137.393821052541</v>
+        <v>1723.053605569438</v>
       </c>
       <c r="D14" t="n">
-        <v>1732.929891145602</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="E14" t="n">
         <v>1318.589675662498</v>
@@ -5275,55 +5275,55 @@
         <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7802573176929</v>
+        <v>304.3369030072596</v>
       </c>
       <c r="K14" t="n">
-        <v>801.9397584267324</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L14" t="n">
-        <v>1514.53115823897</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M14" t="n">
-        <v>2290.849749230724</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.030765869342</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O14" t="n">
-        <v>3687.661622286447</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P14" t="n">
-        <v>4216.818320205599</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4537.979327000891</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
-        <v>4578.535972690456</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690456</v>
+        <v>4557.844278125596</v>
       </c>
       <c r="T14" t="n">
-        <v>4578.535972690456</v>
+        <v>4335.637794072455</v>
       </c>
       <c r="U14" t="n">
-        <v>4492.917517815069</v>
+        <v>4078.577302331965</v>
       </c>
       <c r="V14" t="n">
-        <v>4143.079963151549</v>
+        <v>3728.739747668446</v>
       </c>
       <c r="W14" t="n">
-        <v>3759.319662286718</v>
+        <v>3344.979446803614</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.676264455671</v>
+        <v>2944.336048972567</v>
       </c>
       <c r="Y14" t="n">
-        <v>2957.739591403761</v>
+        <v>2543.399375920657</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>752.6588913730974</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.635972067664</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="N15" t="n">
-        <v>2138.059915304309</v>
+        <v>965.228811565427</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.059915304309</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P15" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>105.6532688590196</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
         <v>260.2055965812576</v>
@@ -5460,28 +5460,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V16" t="n">
-        <v>553.0724980923173</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W16" t="n">
-        <v>274.0028336011917</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X16" t="n">
-        <v>91.57071945380913</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.57071945380913</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F17" t="n">
-        <v>873.3089913790386</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5560,7 +5560,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.8737642670213</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>101.7803918287378</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>101.7803918287378</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.022989509699</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.022989509699</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>735.9533250185732</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>497.6094628782566</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>272.8737642670213</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>4332.330861486824</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4105.500992016786</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4379.386737077264</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>4105.500992016786</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>4105.500992016786</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>4105.500992016786</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>4105.500992016786</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G23" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="24">
@@ -6077,19 +6077,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>936.2207783851894</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3963.271952669106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3963.271952669106</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>4150.971659063151</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>4150.971659063151</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>4150.971659063151</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>4150.971659063151</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
-        <v>4150.971659063151</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>1273.952389210086</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>852.921977163774</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X26" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4408.238733368956</v>
+        <v>4093.653822999973</v>
       </c>
       <c r="V29" t="n">
-        <v>4058.401178705436</v>
+        <v>3743.816268336454</v>
       </c>
       <c r="W29" t="n">
-        <v>3674.640877840605</v>
+        <v>3360.055967471622</v>
       </c>
       <c r="X29" t="n">
-        <v>3273.997480009557</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>741.8628115185547</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N30" t="n">
-        <v>741.8628115185547</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O30" t="n">
         <v>1198.623017005979</v>
@@ -6685,25 +6685,25 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629049</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.24369769062287</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O33" t="n">
-        <v>1198.623017005979</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="P33" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>409.9955152208753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>238.9021427825918</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>238.9021427825918</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>238.9021427825918</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>238.9021427825918</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1060.774782366472</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>822.430920226155</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.6952216149197</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6934,13 +6934,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>741.8628115185547</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>692.7936626747511</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>521.7002902364676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>362.2056455593776</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>201.2948304276971</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1343.572929820347</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.229067680031</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>880.4933690687955</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4494.590496051882</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1104.024190797049</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>932.9308183587659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1104.024190797049</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.024190797049</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.024190797049</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2052.438364949176</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C41" t="n">
-        <v>1642.313774262446</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D41" t="n">
-        <v>1237.849844355507</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E41" t="n">
-        <v>823.5096288724035</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F41" t="n">
-        <v>402.4792168260911</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G41" t="n">
         <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7802573176929</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>801.9397584267324</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1514.53115823897</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2290.849749230724</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.030765869342</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3687.661622286447</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>4216.818320205599</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q41" t="n">
-        <v>4537.97932700089</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
-        <v>4578.535972690455</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4443.254897484556</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.048413431415</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U41" t="n">
-        <v>3997.837471024974</v>
+        <v>4406.565755132142</v>
       </c>
       <c r="V41" t="n">
-        <v>3647.999916361454</v>
+        <v>4056.728200468623</v>
       </c>
       <c r="W41" t="n">
-        <v>3264.239615496623</v>
+        <v>3672.967899603791</v>
       </c>
       <c r="X41" t="n">
-        <v>2863.596217665575</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y41" t="n">
-        <v>2462.659544613665</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="42">
@@ -7469,13 +7469,13 @@
         <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>636.4064900892892</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>519.5093323086816</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>399.0165163010096</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
         <v>290.0566364835142</v>
@@ -7484,34 +7484,34 @@
         <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>112.3193108335689</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.5707194538091</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K42" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L42" t="n">
-        <v>1208.465147638396</v>
+        <v>884.9978391460777</v>
       </c>
       <c r="M42" t="n">
-        <v>2051.442228332963</v>
+        <v>884.9978391460777</v>
       </c>
       <c r="N42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="O42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="P42" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q42" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R42" t="n">
         <v>2138.059915304309</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3648.687041053733</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>3477.59366861545</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>3477.59366861545</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>3316.682853483769</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>3152.05172759436</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>3049.137076069605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>3049.137076069605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>3049.137076069605</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>3063.219625474816</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.771953197054</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>3477.669053477114</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>3766.933109917607</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>4047.771892311858</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>4307.332502638332</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>4513.007942887944</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>4578.535972690455</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>4578.535972690455</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>4578.535972690455</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>4578.535972690455</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U43" t="n">
-        <v>4578.535972690455</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V43" t="n">
-        <v>4578.535972690455</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W43" t="n">
-        <v>4299.466308199329</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X43" t="n">
-        <v>4061.122446059013</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y43" t="n">
-        <v>3836.386747447777</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2018.588815615127</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C44" t="n">
-        <v>1608.464224928397</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.237912979571</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E44" t="n">
         <v>1232.237912979571</v>
       </c>
       <c r="F44" t="n">
-        <v>811.2075009332589</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G44" t="n">
         <v>402.4792168260911</v>
       </c>
       <c r="H44" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
         <v>345.7561909215634</v>
@@ -7660,40 +7660,40 @@
         <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>3126.006699473213</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O44" t="n">
-        <v>3769.637555890318</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P44" t="n">
-        <v>4298.794253809469</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q44" t="n">
-        <v>4537.97932700089</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R44" t="n">
-        <v>4578.535972690455</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4443.254897484556</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.048413431415</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U44" t="n">
-        <v>3963.987921690925</v>
+        <v>4406.565755132142</v>
       </c>
       <c r="V44" t="n">
-        <v>3614.150367027406</v>
+        <v>4056.728200468623</v>
       </c>
       <c r="W44" t="n">
-        <v>3230.390066162574</v>
+        <v>3672.967899603791</v>
       </c>
       <c r="X44" t="n">
-        <v>2829.746668331527</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y44" t="n">
-        <v>2428.809995279616</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="45">
@@ -7706,13 +7706,13 @@
         <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>636.4064900892892</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>519.5093323086816</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>399.0165163010096</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
         <v>290.0566364835142</v>
@@ -7721,34 +7721,34 @@
         <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>112.3193108335689</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>284.3835770164424</v>
+        <v>147.5073950081042</v>
       </c>
       <c r="K45" t="n">
-        <v>740.1898332817411</v>
+        <v>603.3136512734029</v>
       </c>
       <c r="L45" t="n">
-        <v>740.1898332817411</v>
+        <v>1264.401823192691</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1898332817411</v>
+        <v>1264.401823192691</v>
       </c>
       <c r="N45" t="n">
-        <v>1613.847925393359</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="O45" t="n">
-        <v>1613.847925393359</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P45" t="n">
-        <v>1758.655931257696</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q45" t="n">
-        <v>2108.500395941679</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
         <v>2138.059915304309</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>251.0653641308991</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>91.5707194538091</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>105.6532688590196</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
         <v>260.2055965812576</v>
@@ -7851,7 +7851,7 @@
         <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.3234579055651</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,10 +8060,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,16 +8072,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>362.9022490996783</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>493.8215862770622</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5690244730511</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8455,7 +8455,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>549.9278720016706</v>
+        <v>590.8941807790108</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8476,7 +8476,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>587.2585395161111</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.2726194786451</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>794.6464440407678</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8774,22 +8774,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M12" t="n">
-        <v>90.72066712971576</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>247.2726194786451</v>
+        <v>288.2389282559852</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>601.0963663600579</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>291.8133246603419</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9409,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9479,22 +9479,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9725,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>352.6623456499191</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
@@ -9965,13 +9965,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>797.4175450132245</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10193,19 +10193,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>268.280820310972</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>519.1254239367926</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>517.4884687476416</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>571.1716873458281</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
@@ -10676,10 +10676,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O36" t="n">
-        <v>519.1254239367926</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10688,7 +10688,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
@@ -10910,7 +10910,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>429.1692081600164</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10919,7 +10919,7 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2726194786451</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>586.3134137908314</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>202.3852368051284</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>140.68600649612</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,10 +11159,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>811.8635318922903</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.6348884308904</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>107.8709312790859</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11393,13 +11393,13 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>200.5303479970831</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
@@ -22561,13 +22561,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>248.7158793210118</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>154.4106979461294</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22722,7 +22722,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>64.34920665474201</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>326.8826200509465</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22795,16 +22795,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>131.5792193643008</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>183.6621682837182</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>303.6558809502922</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.7553487017545</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23229,7 +23229,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>130.3526427082449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>183.6621682837183</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>113.4434868346279</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.7276164964516</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>150.8503797836299</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>115.452657732694</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>134.6847134965114</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>86.87696797299608</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>45.84716204233325</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>187.994239071986</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.083197172522915</v>
+        <v>45.55681957368</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>356.9958808389731</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>21.37602652266273</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>56.01419322081109</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.7564490426709227</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>77.76782362276293</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>33.51105384070834</v>
+        <v>84.23937144035295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>63.69238215420472</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.95524177853264</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>84.23937144035295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>113.6869258769813</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504474.2111983661</v>
+        <v>504474.211198366</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759492.4938880031</v>
+        <v>759492.4938880033</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759492.4938880031</v>
+        <v>759492.4938880033</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759492.4938880032</v>
+        <v>759492.4938880034</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>768058.5938283277</v>
+        <v>768058.5938283278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>768058.5938283276</v>
+        <v>768058.5938283277</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>768058.5938283278</v>
+        <v>768058.5938283277</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768058.5938283278</v>
+        <v>768058.5938283277</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768058.5938283277</v>
+        <v>768058.5938283278</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>768058.5938283276</v>
+        <v>768058.5938283277</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759492.4938880031</v>
+        <v>759492.4938880034</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759492.4938880031</v>
+        <v>759492.4938880034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180746.0634767999</v>
+        <v>180746.0634768</v>
       </c>
       <c r="C2" t="n">
         <v>180746.0634768</v>
@@ -26325,16 +26325,16 @@
         <v>272097.7192092725</v>
       </c>
       <c r="F2" t="n">
-        <v>272097.7192092726</v>
+        <v>272097.7192092725</v>
       </c>
       <c r="G2" t="n">
-        <v>275166.234158339</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="H2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="I2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="J2" t="n">
         <v>275166.2341583392</v>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193389.0504351681</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5731.728000463494</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>157566.9708775299</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>19747.62995624142</v>
       </c>
       <c r="D4" t="n">
-        <v>29853.17293568462</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="E4" t="n">
         <v>29853.17293568462</v>
       </c>
       <c r="F4" t="n">
-        <v>29853.17293568462</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398332</v>
       </c>
       <c r="H4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
         <v>30192.61954398331</v>
@@ -26444,22 +26444,22 @@
         <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="L4" t="n">
         <v>30192.61954398332</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>30192.61954398331</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30192.61954398332</v>
       </c>
       <c r="N4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>29853.17293568462</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="P4" t="n">
-        <v>29853.17293568462</v>
+        <v>29853.17293568463</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>69593.74678489493</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>69593.74678489493</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>69593.74678489492</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>69593.74678489492</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79326.14145105318</v>
+        <v>-80003.67031044705</v>
       </c>
       <c r="C6" t="n">
-        <v>95629.36844206101</v>
+        <v>94951.83958266699</v>
       </c>
       <c r="D6" t="n">
-        <v>-54365.85094647499</v>
+        <v>-54562.58161780355</v>
       </c>
       <c r="E6" t="n">
-        <v>172650.7994886929</v>
+        <v>172454.0688173645</v>
       </c>
       <c r="F6" t="n">
-        <v>172650.799488693</v>
+        <v>172454.0688173645</v>
       </c>
       <c r="G6" t="n">
-        <v>168376.6763690189</v>
+        <v>168196.0957763702</v>
       </c>
       <c r="H6" t="n">
-        <v>174108.4043694825</v>
+        <v>173927.8237768335</v>
       </c>
       <c r="I6" t="n">
-        <v>174108.4043694825</v>
+        <v>173927.8237768335</v>
       </c>
       <c r="J6" t="n">
-        <v>37513.60356358765</v>
+        <v>37333.0229709385</v>
       </c>
       <c r="K6" t="n">
-        <v>174108.4043694825</v>
+        <v>173927.8237768335</v>
       </c>
       <c r="L6" t="n">
-        <v>16541.43349195266</v>
+        <v>16360.85289930346</v>
       </c>
       <c r="M6" t="n">
-        <v>174108.4043694826</v>
+        <v>173927.8237768335</v>
       </c>
       <c r="N6" t="n">
-        <v>174108.4043694826</v>
+        <v>173927.8237768335</v>
       </c>
       <c r="O6" t="n">
-        <v>172650.799488693</v>
+        <v>172454.0688173645</v>
       </c>
       <c r="P6" t="n">
-        <v>172650.799488693</v>
+        <v>172454.0688173645</v>
       </c>
     </row>
   </sheetData>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>622.5704228025885</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.91222796017109</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025885</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>622.5704228025885</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.91222796017109</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O2" t="n">
-        <v>135.5987266329976</v>
-      </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>306.2096305948396</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
+        <v>500.9700927793177</v>
+      </c>
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>338.0047407346337</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35175,7 +35175,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>460.7914823284535</v>
+        <v>501.7577911057936</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35196,7 +35196,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>529.5070605161111</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9490281453371</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>701.3562195837223</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35494,22 +35494,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M12" t="n">
-        <v>33.15638339129833</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9490281453371</v>
+        <v>214.9153369226772</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>547.902972966308</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>234.0618456603419</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36129,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>294.9108666499191</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36460,7 +36460,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3739449367926</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3739449367926</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3739449367926</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37408,7 +37408,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
@@ -37630,7 +37630,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>371.6049244215989</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>173.9490281453372</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>492.6640505099473</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>146.2707129942794</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>87.49261310237</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>760.7889056955737</v>
+        <v>718.951241135671</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.6010840317384</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>56.50169247908591</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>146.2707129942794</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
